--- a/TestData/loginscenario_Shift_A.xlsx
+++ b/TestData/loginscenario_Shift_A.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\123456\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14895" windowHeight="2940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="130">
   <si>
     <t>empId</t>
   </si>
@@ -399,6 +395,21 @@
   </si>
   <si>
     <t>I0548</t>
+  </si>
+  <si>
+    <t>ip</t>
+  </si>
+  <si>
+    <t>115.112.75.70</t>
+  </si>
+  <si>
+    <t>182.75.71.162</t>
+  </si>
+  <si>
+    <t>108.236.70.14</t>
+  </si>
+  <si>
+    <t>108.236.70.</t>
   </si>
 </sst>
 </file>
@@ -436,7 +447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -459,16 +470,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,9 +787,10 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -773,11 +800,14 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -790,8 +820,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -804,8 +837,11 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -818,8 +854,11 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -832,8 +871,11 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -846,8 +888,11 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -860,8 +905,11 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -874,8 +922,11 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -888,8 +939,11 @@
       <c r="D9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -902,8 +956,11 @@
       <c r="D10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -916,8 +973,11 @@
       <c r="D11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -930,8 +990,11 @@
       <c r="D12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
@@ -944,8 +1007,11 @@
       <c r="D13" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -958,8 +1024,11 @@
       <c r="D14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -972,8 +1041,11 @@
       <c r="D15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -986,8 +1058,11 @@
       <c r="D16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -1000,8 +1075,11 @@
       <c r="D17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -1014,8 +1092,11 @@
       <c r="D18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -1028,8 +1109,11 @@
       <c r="D19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
@@ -1042,8 +1126,11 @@
       <c r="D20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -1056,8 +1143,11 @@
       <c r="D21" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
@@ -1070,8 +1160,11 @@
       <c r="D22" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -1084,8 +1177,11 @@
       <c r="D23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>47</v>
       </c>
@@ -1098,8 +1194,11 @@
       <c r="D24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1112,8 +1211,11 @@
       <c r="D25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -1126,8 +1228,11 @@
       <c r="D26" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
@@ -1140,8 +1245,11 @@
       <c r="D27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
@@ -1154,8 +1262,11 @@
       <c r="D28" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>52</v>
       </c>
@@ -1168,8 +1279,11 @@
       <c r="D29" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>53</v>
       </c>
@@ -1182,8 +1296,11 @@
       <c r="D30" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>54</v>
       </c>
@@ -1196,8 +1313,11 @@
       <c r="D31" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>55</v>
       </c>
@@ -1210,8 +1330,11 @@
       <c r="D32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>56</v>
       </c>
@@ -1224,8 +1347,11 @@
       <c r="D33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>57</v>
       </c>
@@ -1238,8 +1364,11 @@
       <c r="D34" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>58</v>
       </c>
@@ -1252,8 +1381,11 @@
       <c r="D35" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>59</v>
       </c>
@@ -1266,8 +1398,11 @@
       <c r="D36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>60</v>
       </c>
@@ -1280,8 +1415,11 @@
       <c r="D37" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>61</v>
       </c>
@@ -1294,8 +1432,11 @@
       <c r="D38" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>62</v>
       </c>
@@ -1308,8 +1449,11 @@
       <c r="D39" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>63</v>
       </c>
@@ -1322,8 +1466,11 @@
       <c r="D40" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>64</v>
       </c>
@@ -1336,8 +1483,11 @@
       <c r="D41" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>65</v>
       </c>
@@ -1350,8 +1500,11 @@
       <c r="D42" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -1364,8 +1517,11 @@
       <c r="D43" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>67</v>
       </c>
@@ -1378,8 +1534,11 @@
       <c r="D44" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>68</v>
       </c>
@@ -1392,8 +1551,11 @@
       <c r="D45" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>69</v>
       </c>
@@ -1406,8 +1568,11 @@
       <c r="D46" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>70</v>
       </c>
@@ -1420,8 +1585,11 @@
       <c r="D47" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>71</v>
       </c>
@@ -1434,8 +1602,11 @@
       <c r="D48" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>72</v>
       </c>
@@ -1448,8 +1619,11 @@
       <c r="D49" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>73</v>
       </c>
@@ -1462,8 +1636,11 @@
       <c r="D50" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>74</v>
       </c>
@@ -1476,8 +1653,11 @@
       <c r="D51" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>75</v>
       </c>
@@ -1490,8 +1670,11 @@
       <c r="D52" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>76</v>
       </c>
@@ -1504,8 +1687,11 @@
       <c r="D53" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>77</v>
       </c>
@@ -1518,8 +1704,11 @@
       <c r="D54" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>78</v>
       </c>
@@ -1532,8 +1721,11 @@
       <c r="D55" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>79</v>
       </c>
@@ -1546,8 +1738,11 @@
       <c r="D56" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>80</v>
       </c>
@@ -1560,8 +1755,11 @@
       <c r="D57" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>81</v>
       </c>
@@ -1574,8 +1772,11 @@
       <c r="D58" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>82</v>
       </c>
@@ -1588,8 +1789,11 @@
       <c r="D59" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>83</v>
       </c>
@@ -1602,8 +1806,11 @@
       <c r="D60" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>84</v>
       </c>
@@ -1616,8 +1823,11 @@
       <c r="D61" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>85</v>
       </c>
@@ -1630,8 +1840,11 @@
       <c r="D62" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>86</v>
       </c>
@@ -1644,8 +1857,11 @@
       <c r="D63" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>87</v>
       </c>
@@ -1658,8 +1874,11 @@
       <c r="D64" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>88</v>
       </c>
@@ -1672,8 +1891,11 @@
       <c r="D65" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>89</v>
       </c>
@@ -1686,8 +1908,11 @@
       <c r="D66" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>90</v>
       </c>
@@ -1700,8 +1925,11 @@
       <c r="D67" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>91</v>
       </c>
@@ -1714,8 +1942,11 @@
       <c r="D68" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>92</v>
       </c>
@@ -1728,8 +1959,11 @@
       <c r="D69" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>93</v>
       </c>
@@ -1742,8 +1976,11 @@
       <c r="D70" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>94</v>
       </c>
@@ -1756,8 +1993,11 @@
       <c r="D71" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>95</v>
       </c>
@@ -1770,8 +2010,11 @@
       <c r="D72" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>96</v>
       </c>
@@ -1784,8 +2027,11 @@
       <c r="D73" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>97</v>
       </c>
@@ -1798,8 +2044,11 @@
       <c r="D74" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>98</v>
       </c>
@@ -1812,8 +2061,11 @@
       <c r="D75" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>99</v>
       </c>
@@ -1826,8 +2078,11 @@
       <c r="D76" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>100</v>
       </c>
@@ -1840,8 +2095,11 @@
       <c r="D77" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>101</v>
       </c>
@@ -1854,8 +2112,11 @@
       <c r="D78" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>102</v>
       </c>
@@ -1868,8 +2129,11 @@
       <c r="D79" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>103</v>
       </c>
@@ -1882,8 +2146,11 @@
       <c r="D80" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>104</v>
       </c>
@@ -1896,8 +2163,11 @@
       <c r="D81" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>105</v>
       </c>
@@ -1910,8 +2180,11 @@
       <c r="D82" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>106</v>
       </c>
@@ -1924,8 +2197,11 @@
       <c r="D83" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>107</v>
       </c>
@@ -1938,8 +2214,11 @@
       <c r="D84" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>108</v>
       </c>
@@ -1952,8 +2231,11 @@
       <c r="D85" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>109</v>
       </c>
@@ -1966,8 +2248,11 @@
       <c r="D86" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>110</v>
       </c>
@@ -1980,8 +2265,11 @@
       <c r="D87" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>111</v>
       </c>
@@ -1994,8 +2282,11 @@
       <c r="D88" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>112</v>
       </c>
@@ -2008,8 +2299,11 @@
       <c r="D89" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>113</v>
       </c>
@@ -2022,8 +2316,11 @@
       <c r="D90" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>114</v>
       </c>
@@ -2036,8 +2333,11 @@
       <c r="D91" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>115</v>
       </c>
@@ -2050,8 +2350,11 @@
       <c r="D92" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>116</v>
       </c>
@@ -2064,8 +2367,11 @@
       <c r="D93" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>117</v>
       </c>
@@ -2078,8 +2384,11 @@
       <c r="D94" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>118</v>
       </c>
@@ -2092,8 +2401,11 @@
       <c r="D95" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>119</v>
       </c>
@@ -2106,8 +2418,11 @@
       <c r="D96" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>120</v>
       </c>
@@ -2120,8 +2435,11 @@
       <c r="D97" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>121</v>
       </c>
@@ -2134,8 +2452,11 @@
       <c r="D98" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>122</v>
       </c>
@@ -2148,8 +2469,11 @@
       <c r="D99" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>123</v>
       </c>
@@ -2162,8 +2486,11 @@
       <c r="D100" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>124</v>
       </c>
@@ -2175,6 +2502,9 @@
       </c>
       <c r="D101" t="s">
         <v>4</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
